--- a/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/SeleccionFotos.xlsx
+++ b/Proyecto de grado/Metodologia y documentacion/Agosto/Cap1_ProcesamientoDeImagenes/SeleccionFotos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Torres_2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torre\Documents\Uniajc\Github\Uniajc_Tesis_OTFV\Proyecto de grado\Metodologia y documentacion\Agosto\Cap1_ProcesamientoDeImagenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1077F2A8-5664-410D-B359-C2960D91AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE767D8F-ABE6-428D-9559-C28D8312A5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90BB2AB1-BDD2-452D-9C54-D84DD2ADB3AF}"/>
   </bookViews>
@@ -1489,9 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030048F7-6FE2-4E56-8D78-CC15778CF2AD}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I18"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
